--- a/Code/99Note/aOften/1-知识.xlsx
+++ b/Code/99Note/aOften/1-知识.xlsx
@@ -2897,6 +2897,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">用于存储已被虚拟机加载的类信息、常量池、静态变量、即时编译器编译后的代码等数据。
@@ -3147,14 +3148,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]General"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="178" formatCode="yy/m/d"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]General"/>
+    <numFmt numFmtId="179" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="73">
     <font>
@@ -3474,8 +3475,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3483,14 +3485,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3512,7 +3506,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3526,36 +3533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3570,14 +3548,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3585,8 +3555,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3608,9 +3587,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3729,13 +3730,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3747,7 +3760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3759,67 +3778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3837,13 +3802,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3855,49 +3868,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4184,30 +4185,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4227,7 +4204,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4247,21 +4248,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4276,8 +4262,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4287,10 +4288,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4299,16 +4300,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4317,118 +4318,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="42" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4671,7 +4672,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4704,7 +4705,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
@@ -4758,7 +4759,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4856,13 +4857,13 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="11" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="26" fillId="11" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4962,7 +4963,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -22101,7 +22102,7 @@
   <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
